--- a/bd/Cam_21_6.xlsx
+++ b/bd/Cam_21_6.xlsx
@@ -390,7 +390,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:H43"/>
   <sheetViews>
     <sheetView tabSelected="1" view="normal" workbookViewId="0">
       <selection activeCell="J5" sqref="J5"/>
@@ -418,7 +418,7 @@
         <v>6</v>
       </c>
       <c r="G1" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="H1" t="n">
         <v>0</v>
@@ -447,7 +447,7 @@
         <v>5</v>
       </c>
       <c r="H2" t="n">
-        <v>0.02745576571079927</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -464,13 +464,13 @@
         <v>80</v>
       </c>
       <c r="E3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -490,16 +490,16 @@
         <v>59</v>
       </c>
       <c r="E4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>0.008301732089781695</v>
       </c>
     </row>
     <row r="5">
@@ -525,7 +525,7 @@
         <v>5</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1461345065996229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -577,44 +577,44 @@
         <v>5</v>
       </c>
       <c r="H7" t="n">
-        <v>0.02997393570807993</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="B8" t="n">
-        <v>734</v>
+        <v>737</v>
       </c>
       <c r="C8" t="n">
-        <v>60</v>
+        <v>60.5</v>
       </c>
       <c r="D8" t="n">
-        <v>55</v>
+        <v>55.5</v>
       </c>
       <c r="E8" t="b">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H8" t="n">
-        <v>0.05654222544400145</v>
+        <v>0.6951034830893488</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>466</v>
+        <v>464.5</v>
       </c>
       <c r="B9" t="n">
-        <v>1047</v>
+        <v>1045.5</v>
       </c>
       <c r="C9" t="n">
-        <v>88</v>
+        <v>93.5</v>
       </c>
       <c r="D9" t="n">
         <v>59</v>
@@ -623,39 +623,39 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>0.8072072072072072</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="B10" t="n">
-        <v>1061</v>
+        <v>1069.5</v>
       </c>
       <c r="C10" t="n">
-        <v>107</v>
+        <v>102.5</v>
       </c>
       <c r="D10" t="n">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E10" t="b">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>0.7189045264359072</v>
       </c>
     </row>
     <row r="11">
@@ -686,28 +686,28 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>219</v>
+        <v>220.5</v>
       </c>
       <c r="B12" t="n">
-        <v>978</v>
+        <v>981</v>
       </c>
       <c r="C12" t="n">
-        <v>87</v>
+        <v>85.5</v>
       </c>
       <c r="D12" t="n">
-        <v>52</v>
+        <v>50.5</v>
       </c>
       <c r="E12" t="b">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H12" t="n">
-        <v>0.05548739399962254</v>
+        <v>0.8497109826589595</v>
       </c>
     </row>
     <row r="13">
@@ -724,13 +724,13 @@
         <v>85</v>
       </c>
       <c r="E13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -750,13 +750,13 @@
         <v>76</v>
       </c>
       <c r="E14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -776,13 +776,13 @@
         <v>78</v>
       </c>
       <c r="E15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -790,54 +790,54 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B16" t="n">
-        <v>711</v>
+        <v>714.5</v>
       </c>
       <c r="C16" t="n">
-        <v>45</v>
+        <v>42.5</v>
       </c>
       <c r="D16" t="n">
-        <v>51</v>
+        <v>50.5</v>
       </c>
       <c r="E16" t="b">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H16" t="n">
-        <v>0.01843671980026887</v>
+        <v>0.6504259054732333</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>269</v>
+        <v>271.5</v>
       </c>
       <c r="B17" t="n">
-        <v>996</v>
+        <v>1000</v>
       </c>
       <c r="C17" t="n">
-        <v>84</v>
+        <v>83.5</v>
       </c>
       <c r="D17" t="n">
-        <v>54</v>
+        <v>52.5</v>
       </c>
       <c r="E17" t="b">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>0.7381565906838454</v>
       </c>
     </row>
     <row r="18">
@@ -863,7 +863,7 @@
         <v>5</v>
       </c>
       <c r="H18" t="n">
-        <v>0.1080594326879784</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -889,7 +889,7 @@
         <v>5</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>0.01571574991458832</v>
       </c>
     </row>
     <row r="20">
@@ -906,16 +906,16 @@
         <v>44</v>
       </c>
       <c r="E20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="H20" t="n">
-        <v>0.05193905817174515</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -923,25 +923,25 @@
         <v>176</v>
       </c>
       <c r="B21" t="n">
-        <v>963</v>
+        <v>968.5</v>
       </c>
       <c r="C21" t="n">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D21" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E21" t="b">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H21" t="n">
-        <v>0.09079792112503822</v>
+        <v>0.7856543517373553</v>
       </c>
     </row>
     <row r="22">
@@ -967,7 +967,7 @@
         <v>5</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>0.09472394971567677</v>
       </c>
     </row>
     <row r="23">
@@ -984,13 +984,13 @@
         <v>70</v>
       </c>
       <c r="E23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1045,7 +1045,7 @@
         <v>5</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>0.07974867085548575</v>
       </c>
     </row>
     <row r="26">
@@ -1062,13 +1062,13 @@
         <v>61</v>
       </c>
       <c r="E26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1114,13 +1114,13 @@
         <v>55</v>
       </c>
       <c r="E28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1140,13 +1140,13 @@
         <v>52</v>
       </c>
       <c r="E29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1192,13 +1192,13 @@
         <v>80</v>
       </c>
       <c r="E31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1227,6 +1227,292 @@
         <v>5</v>
       </c>
       <c r="H32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>141</v>
+      </c>
+      <c r="B33" t="n">
+        <v>731</v>
+      </c>
+      <c r="C33" t="n">
+        <v>42</v>
+      </c>
+      <c r="D33" t="n">
+        <v>55</v>
+      </c>
+      <c r="E33" t="b">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>5</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>732</v>
+      </c>
+      <c r="B34" t="n">
+        <v>1101</v>
+      </c>
+      <c r="C34" t="n">
+        <v>88</v>
+      </c>
+      <c r="D34" t="n">
+        <v>60</v>
+      </c>
+      <c r="E34" t="b">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>5</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>1777</v>
+      </c>
+      <c r="B35" t="n">
+        <v>764</v>
+      </c>
+      <c r="C35" t="n">
+        <v>40</v>
+      </c>
+      <c r="D35" t="n">
+        <v>67</v>
+      </c>
+      <c r="E35" t="b">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>5</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>892</v>
+      </c>
+      <c r="B36" t="n">
+        <v>752</v>
+      </c>
+      <c r="C36" t="n">
+        <v>66</v>
+      </c>
+      <c r="D36" t="n">
+        <v>51</v>
+      </c>
+      <c r="E36" t="b">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>5</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>1599</v>
+      </c>
+      <c r="B37" t="n">
+        <v>761</v>
+      </c>
+      <c r="C37" t="n">
+        <v>34</v>
+      </c>
+      <c r="D37" t="n">
+        <v>76</v>
+      </c>
+      <c r="E37" t="b">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>5</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>1684</v>
+      </c>
+      <c r="B38" t="n">
+        <v>761</v>
+      </c>
+      <c r="C38" t="n">
+        <v>40</v>
+      </c>
+      <c r="D38" t="n">
+        <v>71</v>
+      </c>
+      <c r="E38" t="b">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>5</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>782</v>
+      </c>
+      <c r="B39" t="n">
+        <v>360</v>
+      </c>
+      <c r="C39" t="n">
+        <v>26</v>
+      </c>
+      <c r="D39" t="n">
+        <v>40</v>
+      </c>
+      <c r="E39" t="b">
+        <v>0</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" t="n">
+        <v>5</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>2039</v>
+      </c>
+      <c r="B40" t="n">
+        <v>836</v>
+      </c>
+      <c r="C40" t="n">
+        <v>38</v>
+      </c>
+      <c r="D40" t="n">
+        <v>66</v>
+      </c>
+      <c r="E40" t="b">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>5</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>901</v>
+      </c>
+      <c r="B41" t="n">
+        <v>393</v>
+      </c>
+      <c r="C41" t="n">
+        <v>27</v>
+      </c>
+      <c r="D41" t="n">
+        <v>59</v>
+      </c>
+      <c r="E41" t="b">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>5</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>1501</v>
+      </c>
+      <c r="B42" t="n">
+        <v>753</v>
+      </c>
+      <c r="C42" t="n">
+        <v>41</v>
+      </c>
+      <c r="D42" t="n">
+        <v>83</v>
+      </c>
+      <c r="E42" t="b">
+        <v>0</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" t="n">
+        <v>5</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>819</v>
+      </c>
+      <c r="B43" t="n">
+        <v>411</v>
+      </c>
+      <c r="C43" t="n">
+        <v>28</v>
+      </c>
+      <c r="D43" t="n">
+        <v>56</v>
+      </c>
+      <c r="E43" t="b">
+        <v>0</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" t="n">
+        <v>5</v>
+      </c>
+      <c r="H43" t="n">
         <v>0</v>
       </c>
     </row>
